--- a/assets/xlsx/restaurantes.xlsx
+++ b/assets/xlsx/restaurantes.xlsx
@@ -1,29 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E63FAE31-9091-4FB6-A510-94951D9D2CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -54,7 +40,7 @@
     <t>Em um ambiente acolhedor e vibrante, o Sabores da Bahia transporta você para o coração da cultura baiana. Inspirado pela rica culinária regional, o restaurante oferece pratos tradicionais com um toque contemporâneo. Deixe-se envolver pelos aromas irresistíveis e saboreie as delícias típicas, como o acarajé crocante, o bobó de camarão e a moqueca de peixe fresco. A equipe calorosa e o ambiente descontraído fazem com que cada visita seja uma experiência inesquecível.</t>
   </si>
   <si>
-    <t>https://source.unsplash.com/random/560x400/?bahia+restaurant ; https://source.unsplash.com/random/560x400/?bahia+restaurant ; https://source.unsplash.com/random/560x400/?bahia+restaurant</t>
+    <t>/assets/images/restaurantes/bahia.jpg; /assets/images/restaurantes/bahia2.jpg; /assets/images/restaurantes/bahia3.jpg</t>
   </si>
   <si>
     <t>Rua das Palmeiras, 150, Salvador, BA</t>
@@ -313,19 +299,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,13 +314,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -349,7 +334,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -360,7 +344,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -372,50 +363,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="17">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFF7C6E1"/>
-    </mruColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,10 +432,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -456,116 +462,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,950 +549,1061 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" style="14" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="55.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="33.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="290.25">
-      <c r="A2" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="268.5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="275.25">
-      <c r="A3" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="254.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="290.25">
-      <c r="A4" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="282">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="259.5">
-      <c r="A5" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="240.75">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="321">
-      <c r="A6" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="295.5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="290.25">
-      <c r="A7" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="268.5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="275.25">
-      <c r="A8" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="268.5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="275.25">
-      <c r="A9" s="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="268.5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="259.5">
-      <c r="A10" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="254.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="321">
-      <c r="A11" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="295.5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="290.25">
-      <c r="A12" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="268.5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="290.25">
-      <c r="A13" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="268.5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="259.5">
-      <c r="A14" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="240.75">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="290.25">
-      <c r="A15" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="305.25">
-      <c r="A16" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="290.25">
-      <c r="A17" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="305.25">
-      <c r="A18" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="321">
-      <c r="A19" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="9"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="9"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="9"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="9"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="C23" s="6"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="9"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="9"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="9"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="9"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="9"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="9"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="9"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="9"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="9"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="9"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="9"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="9"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="9"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="9"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="9"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="9"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="9"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="9"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="9"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="9"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="9"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:6">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="9"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="2:6">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="9"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="2:6">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="9"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="2:6">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="9"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="2:6">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="9"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="2:6">
+      <c r="F49" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="2:6">
+      <c r="F50" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="9"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="2:6">
+      <c r="F51" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="9"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="2:6">
+      <c r="F52" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="9"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="2:6">
+      <c r="F53" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+      <c r="A54" s="9"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="2:6">
+      <c r="F54" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="9"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="2:6">
+      <c r="F55" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="A56" s="9"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="2:6">
+      <c r="F56" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="9"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="2:6">
+      <c r="F57" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="A58" s="9"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="2"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="2:6">
+      <c r="F58" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="9"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="2:6">
+      <c r="F59" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="9"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="2"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="2:6">
+      <c r="F60" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="A61" s="9"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="6"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="2:6">
+      <c r="F61" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="A62" s="9"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="2:6">
+      <c r="F62" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="9"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="2:6">
+      <c r="F63" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="9"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="2"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="2:6">
+      <c r="F64" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="A65" s="9"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="2"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="2:6">
+      <c r="F65" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="A66" s="9"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="2"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="2:6">
+      <c r="F66" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="A67" s="9"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="2"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="2:6">
+      <c r="F67" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="A68" s="9"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="2:6">
+      <c r="F68" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+      <c r="A69" s="9"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="2:6">
+      <c r="F69" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+      <c r="A70" s="9"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="2"/>
+      <c r="C70" s="6"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="2:6">
+      <c r="F70" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+      <c r="A71" s="9"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="2"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="2:6">
+      <c r="F71" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+      <c r="A72" s="9"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="2"/>
+      <c r="C72" s="6"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="2:6">
+      <c r="F72" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+      <c r="A73" s="9"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="2"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="2:6">
+      <c r="F73" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+      <c r="A74" s="9"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="2"/>
+      <c r="C74" s="6"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="3"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/xlsx/restaurantes.xlsx
+++ b/assets/xlsx/restaurantes.xlsx
@@ -43,7 +43,7 @@
     <t>/assets/images/restaurantes/bahia.jpg; /assets/images/restaurantes/bahia2.jpg; /assets/images/restaurantes/bahia3.jpg</t>
   </si>
   <si>
-    <t>Rua das Palmeiras, 150, Salvador, BA</t>
+    <t>Rua das Palmeiras, 150, Salvador, BAHIA</t>
   </si>
   <si>
     <t>Bobó de camarão; Moqueca baiana; Acarajé; Vatapá; Caruru</t>
@@ -58,7 +58,7 @@
     <t>https://source.unsplash.com/random/560x400/?sertao+restaurant ; https://source.unsplash.com/random/560x400/?sertao+restaurant ; https://source.unsplash.com/random/560x400/?sertao+restaurant</t>
   </si>
   <si>
-    <t>Avenida do Xique-Xique, 456 - Vila Nordestina, Petrolina - PE, CEP 50000-000</t>
+    <t>Avenida do Xique-Xique, 456 - Vila Nordestina, Petrolina - PERNAMBUCO, CEP 50000-000</t>
   </si>
   <si>
     <t>Bode guisado; Escondidinho de carne seca; Arroz de hauçá; Buchada de bode; Caldo de mocotó</t>
@@ -73,7 +73,7 @@
     <t>https://source.unsplash.com/random/560x400/?amazon+restaurant ; https://source.unsplash.com/random/560x400/?amazon+restaurant ; https://source.unsplash.com/random/560x400/?amazon+restaurant</t>
   </si>
   <si>
-    <t>Rua das Bromélias, 789 - Jardim Florestal, Manaus - AM, CEP 60000-000</t>
+    <t>Rua das Bromélias, 789 - Jardim Florestal, Manaus - AMAZONAS, CEP 60000-000</t>
   </si>
   <si>
     <t>Tambaqui assado na brasa; Pirarucu de casaca; Tacacá amazônico; Peixe com castanha-do-pará; Sorvete de cupuaçu</t>
@@ -88,7 +88,7 @@
     <t>https://source.unsplash.com/random/560x400/?pantanal+restaurant ; https://source.unsplash.com/random/560x400/?pantanal+restaurant ; https://source.unsplash.com/random/560x400/?pantanal+restaurant</t>
   </si>
   <si>
-    <t>Avenida dos Jacarés, 321 - Centro, Corumbá - MS, CEP 79000-000</t>
+    <t>Avenida dos Jacarés, 321 - Centro, Corumbá - MATO GROSSO DO SUL, CEP 79000-000</t>
   </si>
   <si>
     <t>Arroz Pantaneiro com Carne de Jacaré ; Moqueca Pantaneira de Peixe ; Pirão de Mandioca com Caldo de Piranha ; Sopa de Jacaré</t>
@@ -100,7 +100,7 @@
     <t>No coração da Amazônia, o Tempero da Amazônia é um tesouro gastronômico esperando para ser descoberto. Com sua decoração inspirada na floresta tropical e seu cardápio repleto de sabores exóticos, o restaurante oferece uma experiência única. Experimente pratos tradicionais como tacacá, pirarucu com molho de tucupi e pato no tucupi, e deixe-se levar pelos aromas e sabores inigualáveis da Amazônia. A equipe atenciosa e apaixonada compartilhará com você histórias fascinantes sobre a região.</t>
   </si>
   <si>
-    <t>Rua da Floresta, 200, Manaus, AM</t>
+    <t>Rua da Floresta, 200, Manaus, AMAZONAS</t>
   </si>
   <si>
     <t>Tacacá ; Pato no Tucupi ; Moqueca de Pirarucu ; Farofa de Banana-da-Terra</t>
@@ -115,7 +115,7 @@
     <t>https://source.unsplash.com/random/560x400/?reconcavo+restaurant ; https://source.unsplash.com/random/560x400/?reconcavo+restaurant ; https://source.unsplash.com/random/560x400/?reconcavo+restaurant</t>
   </si>
   <si>
-    <t>Rua das Palmeiras, 234 - Centro, Salvador - BA, CEP 40000-000</t>
+    <t>Rua das Palmeiras, 234 - Centro, Salvador - BAHIA, CEP 40000-000</t>
   </si>
   <si>
     <t>Acarajé ; Moqueca Baiana ; Vatapá ; Bobó de Camarão</t>
@@ -130,7 +130,7 @@
     <t>https://source.unsplash.com/random/560x400/?cerrado+restaurant ; https://source.unsplash.com/random/560x400/?cerrado+restaurant ; https://source.unsplash.com/random/560x400/?cerrado+restaurant</t>
   </si>
   <si>
-    <t>Avenida das Mangabeiras, 567 - Setor Central, Goiânia - GO, CEP 60000-000</t>
+    <t>Avenida das Mangabeiras, 567 - Setor Central, Goiânia - GOIAS, CEP 60000-000</t>
   </si>
   <si>
     <t>Arroz com pequi; Frango com guariroba; Empadão goiano; Queijo de coalho grelhado; Pamonha assada</t>
@@ -145,7 +145,7 @@
     <t>https://source.unsplash.com/random/560x400/?north+brazil+restaurant ; https://source.unsplash.com/random/560x400/?north+brazil+restaurant ; https://source.unsplash.com/random/560x400/?north+brazil+restaurant</t>
   </si>
   <si>
-    <t>Rua das Castanheiras, 890 - Centro, Belém - PA, CEP 66000-000</t>
+    <t>Rua das Castanheiras, 890 - Centro, Belém - PARÁ, CEP 66000-000</t>
   </si>
   <si>
     <t>Pato no tucupi; Tacacá; Vatapá paraense; Caruru paraense; Maniçoba</t>
@@ -160,7 +160,7 @@
     <t>https://source.unsplash.com/random/560x400/?pampa+restaurant ; https://source.unsplash.com/random/560x400/?pampa+restaurant ; https://source.unsplash.com/random/560x400/?pampa+restaurant</t>
   </si>
   <si>
-    <t>Rua da Praia, 25, Porto Alegre, RS</t>
+    <t>Rua da Praia, 25, Porto Alegre, RRIO GRANDE DO SUL</t>
   </si>
   <si>
     <t>Churrasco de costela; Arroz carreteiro
@@ -176,7 +176,7 @@
     <t>https://source.unsplash.com/random/560x400/?grilled+restaurant ; https://source.unsplash.com/random/560x400/?grilled+restaurant ; https://source.unsplash.com/random/560x400/?grilled+restaurant</t>
   </si>
   <si>
-    <t>Avenida das Praias, 100, Rio de Janeiro, RJ</t>
+    <t>Avenida das Praias, 100, Rio de Janeiro, RIO DE JANEIRO</t>
   </si>
   <si>
     <t>Picanha na Brasa ; Frango Assado com Pimenta ; Costelinha Suína com Molho de Pimenta ; Camarão Grelhado na Brasa</t>
@@ -191,7 +191,7 @@
     <t>https://source.unsplash.com/random/560x400/?brazilian+food ; https://source.unsplash.com/random/560x400/?brazilian+food ; https://source.unsplash.com/random/560x400/?brazilian+food</t>
   </si>
   <si>
-    <t>Rua das Queijadas, 456 - Savassi, Belo Horizonte - MG, CEP 30000-000</t>
+    <t>Rua das Queijadas, 456 - Savassi, Belo Horizonte - MINAS GERAIS, CEP 30000-000</t>
   </si>
   <si>
     <t>Pão de Queijo Mineiro ; Frango com Quiabo ; Feijão Tropeiro ; Doce de Leite com Queijo Minas</t>
@@ -206,7 +206,7 @@
     <t>https://source.unsplash.com/random/560x400/?tuscany+restaurant ; https://source.unsplash.com/random/560x400/?tuscany+restaurant ; https://source.unsplash.com/random/560x400/?tuscany+restaurant</t>
   </si>
   <si>
-    <t>Rua das Flores, 200, Campinas, SP</t>
+    <t>Rua das Flores, 200, Campinas, SAO PAULO</t>
   </si>
   <si>
     <t>Galinhada; Tutu de feijão; Linguiça de porco; Mandioca frita; Couve refogada</t>
@@ -221,7 +221,7 @@
     <t>https://source.unsplash.com/random/560x400/?green+restaurant ; https://source.unsplash.com/random/560x400/?green+restaurant ; https://source.unsplash.com/random/560x400/?green+restaurant</t>
   </si>
   <si>
-    <t>Rua das Acácias, 100, Salvador, BA</t>
+    <t>Rua das Acácias, 100, Salvador, BAHIA</t>
   </si>
   <si>
     <t>Sabor Norte Fluminense</t>
@@ -233,7 +233,7 @@
     <t>https://source.unsplash.com/random/560x400/?north+fluminense+restaurant ; https://source.unsplash.com/random/560x400/?north+fluminense+restaurant ; https://source.unsplash.com/random/560x400/?north+fluminense+restaurant</t>
   </si>
   <si>
-    <t>Rua das Ondas, 30, Macaé, RJ</t>
+    <t>Rua das Ondas, 30, Macaé, RIO DE JANEIRO</t>
   </si>
   <si>
     <t>Bobó de Camarão ; Moqueca Capixaba ; Casquinha de Siri ; Peixe à Francesa ; Torta Capixaba</t>
@@ -248,7 +248,7 @@
     <t>https://source.unsplash.com/random/560x400/?paulista+restaurant ; https://source.unsplash.com/random/560x400/?paulista+restaurant ; https://source.unsplash.com/random/560x400/?paulista+restaurant</t>
   </si>
   <si>
-    <t>Via delle Pasticcerie, 75, São Paulo, SP</t>
+    <t>Via delle Pasticcerie, 75, São Paulo, SAO PAULO</t>
   </si>
   <si>
     <t>eijoada ; Virado à Paulista ; Sanduíche de Mortadela ; Coxinha ; Brigadeiro</t>
@@ -263,7 +263,7 @@
     <t>https://source.unsplash.com/random/560x400/?tocantins+restaurant ; https://source.unsplash.com/random/560x400/?tocantins+restaurant ; https://source.unsplash.com/random/560x400/?tocantins+restaurant</t>
   </si>
   <si>
-    <t>Avenida das Águas, 80, Palmas, TO</t>
+    <t>Avenida das Águas, 80, Palmas, TOCANTIS</t>
   </si>
   <si>
     <t>Arroz com Pequi ; Pirarucu de Casaca ; Pamonha ; Sopa de Capim Dourado ; Peixe na Telha</t>
@@ -275,7 +275,7 @@
     <t>Imerso na exuberante paisagem do Pantanal, o Delícias Pantaneiras é um restaurante que combina a natureza selvagem com a autenticidade da culinária regional. Com sua decoração rústica e acolhedora, o restaurante oferece pratos frescos e saborosos, diretamente inspirados pelos ingredientes abundantes do Pantanal. Saboreie a suculenta carne de jacaré, a deliciosa sopa de piranha e a típica saltenha pantaneira. No Delícias Pantaneiras, cada prato é uma homenagem aos sabores únicos e à rica biodiversidade da região.</t>
   </si>
   <si>
-    <t>Rua do Pantanal, 45, Cuiabá, MT</t>
+    <t>Rua do Pantanal, 45, Cuiabá, MATO GROSSO</t>
   </si>
   <si>
     <t>Caldo de Piranha ; Carne de Sol com Mandioca ; Sopa Pantaneira ; Doce de Leite Pantaneiro ; Bolo de Arroz Pantaneiro</t>
@@ -290,7 +290,7 @@
     <t>https://source.unsplash.com/random/560x400/?southern+brazil+restaurant ; https://source.unsplash.com/random/560x400/?southern+brazil+restaurant ; https://source.unsplash.com/random/560x400/?southern+brazil+restaurant</t>
   </si>
   <si>
-    <t>Rua das Araucárias, 350, Curitiba, PR</t>
+    <t>Rua das Araucárias, 350, Curitiba, PARANÁ</t>
   </si>
   <si>
     <t>Churrasco Gaúcho ; Barreado ; Cuca ; Pinhão Cozido ; Sagu de Vinho</t>
@@ -383,14 +383,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,17 +395,20 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
@@ -721,11 +721,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="55.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="55.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="37.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="16" width="33.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -865,7 +865,7 @@
       <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="268.5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="282">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="268.5">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="295.5">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="295.5">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1110,7 +1110,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
@@ -1118,7 +1118,7 @@
       <c r="F20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
@@ -1126,7 +1126,7 @@
       <c r="F21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
@@ -1134,15 +1134,15 @@
       <c r="F22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
@@ -1150,7 +1150,7 @@
       <c r="F24" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
@@ -1158,7 +1158,7 @@
       <c r="F25" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
@@ -1166,7 +1166,7 @@
       <c r="F26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
@@ -1174,7 +1174,7 @@
       <c r="F27" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
@@ -1182,7 +1182,7 @@
       <c r="F28" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
@@ -1190,7 +1190,7 @@
       <c r="F29" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
@@ -1198,7 +1198,7 @@
       <c r="F30" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
@@ -1206,7 +1206,7 @@
       <c r="F31" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
@@ -1214,7 +1214,7 @@
       <c r="F32" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5"/>
@@ -1222,7 +1222,7 @@
       <c r="F33" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
@@ -1230,7 +1230,7 @@
       <c r="F34" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
@@ -1238,7 +1238,7 @@
       <c r="F35" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5"/>
@@ -1246,7 +1246,7 @@
       <c r="F36" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="5"/>
@@ -1254,7 +1254,7 @@
       <c r="F37" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
@@ -1262,7 +1262,7 @@
       <c r="F38" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="5"/>
@@ -1270,7 +1270,7 @@
       <c r="F39" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="5"/>
@@ -1278,7 +1278,7 @@
       <c r="F40" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="5"/>
@@ -1286,7 +1286,7 @@
       <c r="F41" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="5"/>
@@ -1294,7 +1294,7 @@
       <c r="F42" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="5"/>
@@ -1302,7 +1302,7 @@
       <c r="F43" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="5"/>
@@ -1310,7 +1310,7 @@
       <c r="F44" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="5"/>
@@ -1318,7 +1318,7 @@
       <c r="F45" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="5"/>
@@ -1326,7 +1326,7 @@
       <c r="F46" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
@@ -1334,7 +1334,7 @@
       <c r="F47" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="5"/>
@@ -1342,7 +1342,7 @@
       <c r="F48" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="5"/>
@@ -1350,7 +1350,7 @@
       <c r="F49" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="5"/>
@@ -1358,7 +1358,7 @@
       <c r="F50" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="5"/>
@@ -1366,7 +1366,7 @@
       <c r="F51" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="5"/>
@@ -1374,7 +1374,7 @@
       <c r="F52" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="5"/>
@@ -1382,7 +1382,7 @@
       <c r="F53" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
-      <c r="A54" s="9"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
@@ -1390,7 +1390,7 @@
       <c r="F54" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
-      <c r="A55" s="9"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="5"/>
@@ -1398,7 +1398,7 @@
       <c r="F55" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
-      <c r="A56" s="9"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="5"/>
@@ -1406,7 +1406,7 @@
       <c r="F56" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
-      <c r="A57" s="9"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="5"/>
@@ -1414,7 +1414,7 @@
       <c r="F57" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="5"/>
@@ -1422,7 +1422,7 @@
       <c r="F58" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="5"/>
@@ -1430,7 +1430,7 @@
       <c r="F59" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
@@ -1438,7 +1438,7 @@
       <c r="F60" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
@@ -1446,7 +1446,7 @@
       <c r="F61" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
@@ -1454,7 +1454,7 @@
       <c r="F62" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="5"/>
@@ -1462,7 +1462,7 @@
       <c r="F63" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="5"/>
@@ -1470,7 +1470,7 @@
       <c r="F64" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="5"/>
@@ -1478,7 +1478,7 @@
       <c r="F65" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="5"/>
@@ -1486,7 +1486,7 @@
       <c r="F66" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="5"/>
@@ -1494,7 +1494,7 @@
       <c r="F67" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="5"/>
@@ -1502,7 +1502,7 @@
       <c r="F68" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="5"/>
@@ -1510,7 +1510,7 @@
       <c r="F69" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="5"/>
@@ -1518,7 +1518,7 @@
       <c r="F70" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="5"/>
@@ -1526,7 +1526,7 @@
       <c r="F71" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="5"/>
@@ -1534,7 +1534,7 @@
       <c r="F72" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="5"/>
@@ -1542,68 +1542,68 @@
       <c r="F73" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="11">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="11">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="11">
-      <c r="A77" s="12"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="11">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="11">
-      <c r="A79" s="12"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="11">
-      <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="11">
-      <c r="A81" s="12"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="10">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="10">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="10">
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="10">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="10">
+      <c r="A79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="10">
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="10">
+      <c r="A81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/xlsx/restaurantes.xlsx
+++ b/assets/xlsx/restaurantes.xlsx
@@ -58,7 +58,7 @@
     <t>https://source.unsplash.com/random/560x400/?sertao+restaurant ; https://source.unsplash.com/random/560x400/?sertao+restaurant ; https://source.unsplash.com/random/560x400/?sertao+restaurant</t>
   </si>
   <si>
-    <t>Avenida do Xique-Xique, 456 - Vila Nordestina, Petrolina - PERNAMBUCO, CEP 50000-000</t>
+    <t>Avenida do Xique-Xique, 456 - Vila Nordestina, Petrolina, PERNAMBUCO, CEP 50000-000</t>
   </si>
   <si>
     <t>Bode guisado; Escondidinho de carne seca; Arroz de hauçá; Buchada de bode; Caldo de mocotó</t>
@@ -73,7 +73,7 @@
     <t>https://source.unsplash.com/random/560x400/?amazon+restaurant ; https://source.unsplash.com/random/560x400/?amazon+restaurant ; https://source.unsplash.com/random/560x400/?amazon+restaurant</t>
   </si>
   <si>
-    <t>Rua das Bromélias, 789 - Jardim Florestal, Manaus - AMAZONAS, CEP 60000-000</t>
+    <t>Rua das Bromélias, 789 - Jardim Florestal, Manaus, AMAZONAS, CEP 60000-000</t>
   </si>
   <si>
     <t>Tambaqui assado na brasa; Pirarucu de casaca; Tacacá amazônico; Peixe com castanha-do-pará; Sorvete de cupuaçu</t>
@@ -88,7 +88,7 @@
     <t>https://source.unsplash.com/random/560x400/?pantanal+restaurant ; https://source.unsplash.com/random/560x400/?pantanal+restaurant ; https://source.unsplash.com/random/560x400/?pantanal+restaurant</t>
   </si>
   <si>
-    <t>Avenida dos Jacarés, 321 - Centro, Corumbá - MATO GROSSO DO SUL, CEP 79000-000</t>
+    <t>Avenida dos Jacarés, 321 - Centro, Corumbá, MATO GROSSO DO SUL, CEP 79000-000</t>
   </si>
   <si>
     <t>Arroz Pantaneiro com Carne de Jacaré ; Moqueca Pantaneira de Peixe ; Pirão de Mandioca com Caldo de Piranha ; Sopa de Jacaré</t>
@@ -100,7 +100,7 @@
     <t>No coração da Amazônia, o Tempero da Amazônia é um tesouro gastronômico esperando para ser descoberto. Com sua decoração inspirada na floresta tropical e seu cardápio repleto de sabores exóticos, o restaurante oferece uma experiência única. Experimente pratos tradicionais como tacacá, pirarucu com molho de tucupi e pato no tucupi, e deixe-se levar pelos aromas e sabores inigualáveis da Amazônia. A equipe atenciosa e apaixonada compartilhará com você histórias fascinantes sobre a região.</t>
   </si>
   <si>
-    <t>Rua da Floresta, 200, Manaus, AMAZONAS</t>
+    <t>Rua da Floresta, 200, Manaus - AMAZONAS</t>
   </si>
   <si>
     <t>Tacacá ; Pato no Tucupi ; Moqueca de Pirarucu ; Farofa de Banana-da-Terra</t>
@@ -115,7 +115,7 @@
     <t>https://source.unsplash.com/random/560x400/?reconcavo+restaurant ; https://source.unsplash.com/random/560x400/?reconcavo+restaurant ; https://source.unsplash.com/random/560x400/?reconcavo+restaurant</t>
   </si>
   <si>
-    <t>Rua das Palmeiras, 234 - Centro, Salvador - BAHIA, CEP 40000-000</t>
+    <t>Rua das Palmeiras, 234 - Centro, Salvador, BAHIA, CEP 40000-000</t>
   </si>
   <si>
     <t>Acarajé ; Moqueca Baiana ; Vatapá ; Bobó de Camarão</t>
@@ -130,7 +130,7 @@
     <t>https://source.unsplash.com/random/560x400/?cerrado+restaurant ; https://source.unsplash.com/random/560x400/?cerrado+restaurant ; https://source.unsplash.com/random/560x400/?cerrado+restaurant</t>
   </si>
   <si>
-    <t>Avenida das Mangabeiras, 567 - Setor Central, Goiânia - GOIAS, CEP 60000-000</t>
+    <t>Avenida das Mangabeiras, 567 - Setor Central, Goiânia, GOIAS, CEP 60000-000</t>
   </si>
   <si>
     <t>Arroz com pequi; Frango com guariroba; Empadão goiano; Queijo de coalho grelhado; Pamonha assada</t>
@@ -145,7 +145,7 @@
     <t>https://source.unsplash.com/random/560x400/?north+brazil+restaurant ; https://source.unsplash.com/random/560x400/?north+brazil+restaurant ; https://source.unsplash.com/random/560x400/?north+brazil+restaurant</t>
   </si>
   <si>
-    <t>Rua das Castanheiras, 890 - Centro, Belém - PARÁ, CEP 66000-000</t>
+    <t>Rua das Castanheiras, 890 - Centro, Belém, PARÁ, CEP 66000-000</t>
   </si>
   <si>
     <t>Pato no tucupi; Tacacá; Vatapá paraense; Caruru paraense; Maniçoba</t>
@@ -160,7 +160,7 @@
     <t>https://source.unsplash.com/random/560x400/?pampa+restaurant ; https://source.unsplash.com/random/560x400/?pampa+restaurant ; https://source.unsplash.com/random/560x400/?pampa+restaurant</t>
   </si>
   <si>
-    <t>Rua da Praia, 25, Porto Alegre, RRIO GRANDE DO SUL</t>
+    <t>Rua da Praia, 25, Porto Alegre, RIO GRANDE DO SUL</t>
   </si>
   <si>
     <t>Churrasco de costela; Arroz carreteiro
@@ -191,7 +191,7 @@
     <t>https://source.unsplash.com/random/560x400/?brazilian+food ; https://source.unsplash.com/random/560x400/?brazilian+food ; https://source.unsplash.com/random/560x400/?brazilian+food</t>
   </si>
   <si>
-    <t>Rua das Queijadas, 456 - Savassi, Belo Horizonte - MINAS GERAIS, CEP 30000-000</t>
+    <t>Rua das Queijadas, 456 - Savassi, Belo Horizonte, MINAS GERAIS, CEP 30000-000</t>
   </si>
   <si>
     <t>Pão de Queijo Mineiro ; Frango com Quiabo ; Feijão Tropeiro ; Doce de Leite com Queijo Minas</t>
@@ -301,7 +301,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,12 +319,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -363,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -386,32 +380,23 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,12 +706,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="55.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="33.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="55.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="33.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -1110,7 +1095,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="8"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
@@ -1118,7 +1103,7 @@
       <c r="F20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="8"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
@@ -1126,7 +1111,7 @@
       <c r="F21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="8"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
@@ -1134,15 +1119,15 @@
       <c r="F22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="8"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="8"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
@@ -1150,7 +1135,7 @@
       <c r="F24" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="8"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
@@ -1158,7 +1143,7 @@
       <c r="F25" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="8"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
@@ -1166,7 +1151,7 @@
       <c r="F26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="8"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
@@ -1174,7 +1159,7 @@
       <c r="F27" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="8"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
@@ -1182,7 +1167,7 @@
       <c r="F28" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="8"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
@@ -1190,7 +1175,7 @@
       <c r="F29" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="8"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
@@ -1198,7 +1183,7 @@
       <c r="F30" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="8"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
@@ -1206,7 +1191,7 @@
       <c r="F31" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="8"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
@@ -1214,7 +1199,7 @@
       <c r="F32" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="8"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5"/>
@@ -1222,7 +1207,7 @@
       <c r="F33" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="8"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
@@ -1230,7 +1215,7 @@
       <c r="F34" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="8"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
@@ -1238,7 +1223,7 @@
       <c r="F35" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="8"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5"/>
@@ -1246,7 +1231,7 @@
       <c r="F36" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="8"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="5"/>
@@ -1254,7 +1239,7 @@
       <c r="F37" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="8"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
@@ -1262,7 +1247,7 @@
       <c r="F38" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="8"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="5"/>
@@ -1270,7 +1255,7 @@
       <c r="F39" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="8"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="5"/>
@@ -1278,7 +1263,7 @@
       <c r="F40" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="8"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="5"/>
@@ -1286,7 +1271,7 @@
       <c r="F41" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="8"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="5"/>
@@ -1294,7 +1279,7 @@
       <c r="F42" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="8"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="5"/>
@@ -1302,7 +1287,7 @@
       <c r="F43" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="8"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="5"/>
@@ -1310,7 +1295,7 @@
       <c r="F44" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="8"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="5"/>
@@ -1318,7 +1303,7 @@
       <c r="F45" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="8"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="5"/>
@@ -1326,7 +1311,7 @@
       <c r="F46" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
-      <c r="A47" s="8"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
@@ -1334,7 +1319,7 @@
       <c r="F47" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="8"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="5"/>
@@ -1342,7 +1327,7 @@
       <c r="F48" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="8"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="5"/>
@@ -1350,7 +1335,7 @@
       <c r="F49" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="8"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="5"/>
@@ -1358,7 +1343,7 @@
       <c r="F50" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
-      <c r="A51" s="8"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="5"/>
@@ -1366,7 +1351,7 @@
       <c r="F51" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
-      <c r="A52" s="8"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="5"/>
@@ -1374,7 +1359,7 @@
       <c r="F52" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
-      <c r="A53" s="8"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="5"/>
@@ -1382,7 +1367,7 @@
       <c r="F53" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
-      <c r="A54" s="8"/>
+      <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
@@ -1390,7 +1375,7 @@
       <c r="F54" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
-      <c r="A55" s="8"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="5"/>
@@ -1398,7 +1383,7 @@
       <c r="F55" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
-      <c r="A56" s="8"/>
+      <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="5"/>
@@ -1406,7 +1391,7 @@
       <c r="F56" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
-      <c r="A57" s="8"/>
+      <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="5"/>
@@ -1414,7 +1399,7 @@
       <c r="F57" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
-      <c r="A58" s="8"/>
+      <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="5"/>
@@ -1422,7 +1407,7 @@
       <c r="F58" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
-      <c r="A59" s="8"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="5"/>
@@ -1430,7 +1415,7 @@
       <c r="F59" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
-      <c r="A60" s="8"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
@@ -1438,7 +1423,7 @@
       <c r="F60" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
-      <c r="A61" s="8"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
@@ -1446,7 +1431,7 @@
       <c r="F61" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
-      <c r="A62" s="8"/>
+      <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
@@ -1454,7 +1439,7 @@
       <c r="F62" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
-      <c r="A63" s="8"/>
+      <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="5"/>
@@ -1462,7 +1447,7 @@
       <c r="F63" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
-      <c r="A64" s="8"/>
+      <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="5"/>
@@ -1470,7 +1455,7 @@
       <c r="F64" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
-      <c r="A65" s="8"/>
+      <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="5"/>
@@ -1478,7 +1463,7 @@
       <c r="F65" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
-      <c r="A66" s="8"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="5"/>
@@ -1486,7 +1471,7 @@
       <c r="F66" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
-      <c r="A67" s="8"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="5"/>
@@ -1494,7 +1479,7 @@
       <c r="F67" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
-      <c r="A68" s="8"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="5"/>
@@ -1502,7 +1487,7 @@
       <c r="F68" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
-      <c r="A69" s="8"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="5"/>
@@ -1510,7 +1495,7 @@
       <c r="F69" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
-      <c r="A70" s="8"/>
+      <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="5"/>
@@ -1518,7 +1503,7 @@
       <c r="F70" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
-      <c r="A71" s="8"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="5"/>
@@ -1526,7 +1511,7 @@
       <c r="F71" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
-      <c r="A72" s="8"/>
+      <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="5"/>
@@ -1534,7 +1519,7 @@
       <c r="F72" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
-      <c r="A73" s="8"/>
+      <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="5"/>
@@ -1542,68 +1527,68 @@
       <c r="F73" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
-      <c r="A74" s="8"/>
+      <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="10">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="9">
+      <c r="A75" s="10"/>
+      <c r="B75" s="7"/>
       <c r="C75" s="7"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="10">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="9">
+      <c r="A76" s="10"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="10">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="9">
+      <c r="A77" s="10"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="10">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="9">
+      <c r="A78" s="10"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="10">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="9">
+      <c r="A79" s="10"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="10">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="9">
+      <c r="A80" s="10"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="10">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="9">
+      <c r="A81" s="10"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/xlsx/restaurantes.xlsx
+++ b/assets/xlsx/restaurantes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,9 @@
     <t>pratos</t>
   </si>
   <si>
+    <t>estado</t>
+  </si>
+  <si>
     <t>Sabores da Bahia</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>Bobó de camarão; Moqueca baiana; Acarajé; Vatapá; Caruru</t>
   </si>
   <si>
+    <t>BA</t>
+  </si>
+  <si>
     <t>Sabor do Sertão</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>Bode guisado; Escondidinho de carne seca; Arroz de hauçá; Buchada de bode; Caldo de mocotó</t>
   </si>
   <si>
+    <t>PE</t>
+  </si>
+  <si>
     <t>Sabores da Mata</t>
   </si>
   <si>
@@ -79,6 +88,9 @@
     <t>Tambaqui assado na brasa; Pirarucu de casaca; Tacacá amazônico; Peixe com castanha-do-pará; Sorvete de cupuaçu</t>
   </si>
   <si>
+    <t>AM</t>
+  </si>
+  <si>
     <t>Sabores do Pantanal</t>
   </si>
   <si>
@@ -94,6 +106,9 @@
     <t>Arroz Pantaneiro com Carne de Jacaré ; Moqueca Pantaneira de Peixe ; Pirão de Mandioca com Caldo de Piranha ; Sopa de Jacaré</t>
   </si>
   <si>
+    <t>MS</t>
+  </si>
+  <si>
     <t>Tempero da Amazônia</t>
   </si>
   <si>
@@ -136,6 +151,9 @@
     <t>Arroz com pequi; Frango com guariroba; Empadão goiano; Queijo de coalho grelhado; Pamonha assada</t>
   </si>
   <si>
+    <t>GO</t>
+  </si>
+  <si>
     <t>Tempero do Norte</t>
   </si>
   <si>
@@ -151,6 +169,9 @@
     <t>Pato no tucupi; Tacacá; Vatapá paraense; Caruru paraense; Maniçoba</t>
   </si>
   <si>
+    <t>PA</t>
+  </si>
+  <si>
     <t>Sabor do Pampa</t>
   </si>
   <si>
@@ -163,8 +184,10 @@
     <t>Rua da Praia, 25, Porto Alegre, RIO GRANDE DO SUL</t>
   </si>
   <si>
-    <t>Churrasco de costela; Arroz carreteiro
-Xis gaúcho; Chimarrão; Cuca alemã</t>
+    <t>Churrasco de costela; Arroz carreteiro&amp;#10;Xis gaúcho; Chimarrão; Cuca alemã</t>
+  </si>
+  <si>
+    <t>RS</t>
   </si>
   <si>
     <t>Pimenta na Brasa</t>
@@ -182,6 +205,9 @@
     <t>Picanha na Brasa ; Frango Assado com Pimenta ; Costelinha Suína com Molho de Pimenta ; Camarão Grelhado na Brasa</t>
   </si>
   <si>
+    <t>RJ</t>
+  </si>
+  <si>
     <t>Forno de Minas</t>
   </si>
   <si>
@@ -197,6 +223,9 @@
     <t>Pão de Queijo Mineiro ; Frango com Quiabo ; Feijão Tropeiro ; Doce de Leite com Queijo Minas</t>
   </si>
   <si>
+    <t>MG</t>
+  </si>
+  <si>
     <t>Villa Toscana</t>
   </si>
   <si>
@@ -212,6 +241,9 @@
     <t>Galinhada; Tutu de feijão; Linguiça de porco; Mandioca frita; Couve refogada</t>
   </si>
   <si>
+    <t>SP</t>
+  </si>
+  <si>
     <t>Cheiro Verde</t>
   </si>
   <si>
@@ -269,6 +301,9 @@
     <t>Arroz com Pequi ; Pirarucu de Casaca ; Pamonha ; Sopa de Capim Dourado ; Peixe na Telha</t>
   </si>
   <si>
+    <t>TO</t>
+  </si>
+  <si>
     <t>Delícias Pantaneiras</t>
   </si>
   <si>
@@ -281,6 +316,9 @@
     <t>Caldo de Piranha ; Carne de Sol com Mandioca ; Sopa Pantaneira ; Doce de Leite Pantaneiro ; Bolo de Arroz Pantaneiro</t>
   </si>
   <si>
+    <t>MT</t>
+  </si>
+  <si>
     <t>Sabores Sulistas</t>
   </si>
   <si>
@@ -294,6 +332,9 @@
   </si>
   <si>
     <t>Churrasco Gaúcho ; Barreado ; Cuca ; Pinhão Cozido ; Sagu de Vinho</t>
+  </si>
+  <si>
+    <t>PR</t>
   </si>
 </sst>
 </file>
@@ -311,7 +352,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -357,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -365,8 +406,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -374,20 +415,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -396,7 +428,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,28 +455,28 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F818D"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -700,28 +732,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="55.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="33.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="55.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="33.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="23.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -730,865 +763,984 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="268.5">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="254.25">
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="282">
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="240.75">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="295.5">
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="268.5">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="268.5">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="268.5">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="254.25">
+      <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="295.5">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="268.5">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="268.5">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="240.75">
+        <v>70</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="268.5">
+        <v>76</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="282">
+      <c r="B15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="268.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="295.5">
+        <v>90</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="295.5">
+        <v>96</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+        <v>101</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="F49" s="5"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="F60" s="5"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="F61" s="5"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="F62" s="5"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="F64" s="5"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="F65" s="5"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="F66" s="5"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="F67" s="5"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+      <c r="F69" s="5"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+      <c r="F72" s="5"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="9">
-      <c r="A75" s="10"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="9">
-      <c r="A76" s="10"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="9">
-      <c r="A77" s="10"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="9">
-      <c r="A78" s="10"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="9">
-      <c r="A79" s="10"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="9">
-      <c r="A80" s="10"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="9">
-      <c r="A81" s="10"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="4"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="4"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="4"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="4"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="4"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/xlsx/restaurantes.xlsx
+++ b/assets/xlsx/restaurantes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t xml:space="preserve">Em um ambiente acolhedor e vibrante, o Sabores da Bahia transporta você para o coração da cultura baiana. Inspirado pela rica culinária regional, o restaurante oferece pratos tradicionais com um toque contemporâneo. Deixe-se envolver pelos aromas irresistíveis e saboreie as delícias típicas, como o acarajé crocante, o bobó de camarão e a moqueca de peixe fresco. A equipe calorosa e o ambiente descontraído fazem com que cada visita seja uma experiência inesquecível.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://source.unsplash.com/random/560x400/?meal ; https://source.unsplash.com/random/560x400/?dessert ;https://source.unsplash.com/random/560x400/?food ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua das Palmeiras, 150, Salvador, BAHIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobó de camarão; Moqueca baiana; Acarajé; Vatapá; Caruru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabor do Sertão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sabor do Sertão é um oásis gastronômico no meio do sertão brasileiro. Com uma decoração rústica e acolhedora, o restaurante oferece pratos autênticos e reconfortantes, diretamente inspirados pela culinária sertaneja. Deixe-se levar pelos sabores marcantes de pratos como carne de sol com pirão, baião de dois e cuscuz nordestino. A equipe simpática e atenciosa está pronta para compartilhar com você histórias fascinantes sobre a cultura e a tradição do sertão.</t>
   </si>
   <si>
     <r>
@@ -57,7 +75,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://source.unsplash.com/random/560x400/?restaurant ; </t>
+      <t xml:space="preserve"> https://source.unsplash.com/random/560x400/?dessert ;https://source.unsplash.com/random/560x400/?food ; </t>
     </r>
     <r>
       <rPr>
@@ -66,25 +84,10 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">https://source.unsplash.com/random/560x400/?restaurant ;https://source.unsplash.com/random/560x400/?restaurant ;</t>
+      <t xml:space="preserve">https://source.unsplash.com/random/560x400/?meal ;</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Rua das Palmeiras, 150, Salvador, BAHIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bobó de camarão; Moqueca baiana; Acarajé; Vatapá; Caruru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabor do Sertão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Sabor do Sertão é um oásis gastronômico no meio do sertão brasileiro. Com uma decoração rústica e acolhedora, o restaurante oferece pratos autênticos e reconfortantes, diretamente inspirados pela culinária sertaneja. Deixe-se levar pelos sabores marcantes de pratos como carne de sol com pirão, baião de dois e cuscuz nordestino. A equipe simpática e atenciosa está pronta para compartilhar com você histórias fascinantes sobre a cultura e a tradição do sertão.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avenida do Xique-Xique, 456 - Vila Nordestina, Petrolina, PERNAMBUCO, CEP 50000-000</t>
   </si>
   <si>
@@ -98,6 +101,27 @@
   </si>
   <si>
     <t xml:space="preserve">Adentre a exuberante floresta tropical do Sabores da Mata e embarque em uma jornada culinária única. Inspirado pela biodiversidade da Amazônia, o restaurante combina ingredientes frescos e autênticos para criar pratos cheios de sabores surpreendentes. Desfrute de iguarias como tacacá, pirarucu grelhado e tucunaré ao molho de castanha. Com sua decoração natural e atmosfera relaxante, o Sabores da Mata oferece uma experiência gastronômica que celebra a riqueza da selva amazônica.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://source.unsplash.com/random/560x400/?food ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://source.unsplash.com/random/560x400/?meal ; https://source.unsplash.com/random/560x400/?dessert ;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Rua das Bromélias, 789 - Jardim Florestal, Manaus, AMAZONAS, CEP 60000-000</t>
@@ -412,44 +436,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -472,7 +500,7 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -481,7 +509,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="34.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="26.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="55.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="60.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="37.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="33.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.01"/>
@@ -544,16 +572,16 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -561,22 +589,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -584,22 +612,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -607,22 +635,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -630,19 +658,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>12</v>
@@ -653,22 +681,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -676,22 +704,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -699,22 +727,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -722,22 +750,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -745,22 +773,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -768,22 +796,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -791,16 +819,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>11</v>
@@ -814,22 +842,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -837,22 +865,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>9</v>
+        <v>76</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -860,22 +888,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -883,22 +911,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -906,22 +934,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -952,7 +980,7 @@
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
